--- a/WalletStatement.xlsx
+++ b/WalletStatement.xlsx
@@ -54,8 +54,8 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="23">
@@ -95,9 +95,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,75 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -188,6 +163,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -204,6 +187,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -212,21 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,16 +447,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -471,13 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,41 +519,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,130 +567,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1103,359 +1103,416 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25700791</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1056</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="7">
+        <v>44166</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F11" si="0">C2-D2</f>
+        <v>56</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G11" si="1">F2/D2*100</f>
+        <v>5.6</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H11" si="2">D2*1.04</f>
+        <v>1040</v>
+      </c>
+      <c r="I2" s="6">
+        <f t="shared" ref="I2:I11" si="3">C2-H2</f>
+        <v>16</v>
+      </c>
+    </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>25700791</v>
+        <v>25698317</v>
       </c>
       <c r="C3" s="6">
-        <v>1056</v>
+        <v>831855</v>
       </c>
       <c r="D3" s="6">
-        <v>1000</v>
+        <v>787819</v>
       </c>
       <c r="E3" s="7">
         <v>44166</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F10" si="1">C3-D3</f>
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>44036</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G10" si="2">F3/D3*100</f>
-        <v>5.6</v>
+        <f t="shared" si="1"/>
+        <v>5.58960878069709</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H10" si="3">D3*1.04</f>
-        <v>1040</v>
+        <f t="shared" si="2"/>
+        <v>819331.76</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I10" si="4">C3-H3</f>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>12523.24</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>25698317</v>
+        <v>25686982</v>
       </c>
       <c r="C4" s="6">
-        <v>831855</v>
+        <v>1056</v>
       </c>
       <c r="D4" s="6">
-        <v>787819</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="7">
         <v>44166</v>
       </c>
       <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>44036</v>
-      </c>
-      <c r="G4" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>5.58960878069709</v>
-      </c>
-      <c r="H4" s="6">
+        <v>1040</v>
+      </c>
+      <c r="I4" s="6">
         <f t="shared" si="3"/>
-        <v>819331.76</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="4"/>
-        <v>12523.24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>25686982</v>
+        <v>25809813</v>
       </c>
       <c r="C5" s="6">
         <v>1056</v>
       </c>
       <c r="D5" s="6">
-        <v>1000</v>
+        <v>1000.18</v>
       </c>
       <c r="E5" s="7">
-        <v>44166</v>
+        <v>44180</v>
       </c>
       <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>55.8200000000001</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="G5" s="6">
+        <v>5.58099542082426</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="H5" s="6">
+        <v>1040.1872</v>
+      </c>
+      <c r="I5" s="6">
         <f t="shared" si="3"/>
-        <v>1040</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15.8127999999999</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>25809813</v>
+        <v>25799444</v>
       </c>
       <c r="C6" s="6">
-        <v>1056</v>
+        <v>199564</v>
       </c>
       <c r="D6" s="6">
-        <v>1000.18</v>
+        <v>188999.6</v>
       </c>
       <c r="E6" s="7">
         <v>44180</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>10564.4</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>55.8200000000001</v>
-      </c>
-      <c r="G6" s="6">
+        <v>5.58964145955864</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>5.58099542082426</v>
-      </c>
-      <c r="H6" s="6">
+        <v>196559.584</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="3"/>
-        <v>1040.1872</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="4"/>
-        <v>15.8127999999999</v>
+        <v>3004.416</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25833013</v>
+      </c>
+      <c r="C7" s="6">
+        <v>105590</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100000.78</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44183</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25799444</v>
-      </c>
-      <c r="C7" s="6">
-        <v>199564</v>
-      </c>
-      <c r="D7" s="6">
-        <v>188999.6</v>
-      </c>
-      <c r="E7" s="7">
-        <v>44180</v>
-      </c>
-      <c r="F7" s="6">
+        <v>5589.22</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>10564.4</v>
-      </c>
-      <c r="G7" s="6">
+        <v>5.58917640442405</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>5.58964145955864</v>
-      </c>
-      <c r="H7" s="6">
+        <v>104000.8112</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="3"/>
-        <v>196559.584</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="4"/>
-        <v>3004.416</v>
+        <v>1589.1888</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25837282</v>
+      </c>
+      <c r="C8" s="6">
+        <v>263974</v>
+      </c>
+      <c r="D8" s="6">
+        <v>249999.45</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44184</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>25833013</v>
-      </c>
-      <c r="C8" s="6">
-        <v>105590</v>
-      </c>
-      <c r="D8" s="6">
-        <v>100000.78</v>
-      </c>
-      <c r="E8" s="7">
-        <v>44183</v>
-      </c>
-      <c r="F8" s="6">
+        <v>13974.55</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>5589.22</v>
-      </c>
-      <c r="G8" s="6">
+        <v>5.58983229763105</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>5.58917640442405</v>
-      </c>
-      <c r="H8" s="6">
+        <v>259999.428</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>104000.8112</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="4"/>
-        <v>1589.1888</v>
+        <v>3974.57199999999</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25898018</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43292</v>
+      </c>
+      <c r="D9" s="6">
+        <v>41000.29</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44193</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>25837282</v>
-      </c>
-      <c r="C9" s="6">
-        <v>263974</v>
-      </c>
-      <c r="D9" s="6">
-        <v>249999.45</v>
-      </c>
-      <c r="E9" s="7">
-        <v>44184</v>
-      </c>
-      <c r="F9" s="6">
+        <v>2291.71</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>13974.55</v>
-      </c>
-      <c r="G9" s="6">
+        <v>5.58949704989891</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>5.58983229763105</v>
-      </c>
-      <c r="H9" s="6">
+        <v>42640.3016</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="3"/>
-        <v>259999.428</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="4"/>
-        <v>3974.57199999999</v>
+        <v>651.698400000001</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>25898018</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25895264</v>
       </c>
       <c r="C10" s="6">
-        <v>43292</v>
+        <v>211179</v>
       </c>
       <c r="D10" s="6">
-        <v>41000.29</v>
+        <v>199999.56</v>
       </c>
       <c r="E10" s="7">
         <v>44193</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>11179.44</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>2291.71</v>
-      </c>
-      <c r="G10" s="6">
+        <v>5.58973229741105</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>5.58949704989891</v>
-      </c>
-      <c r="H10" s="6">
+        <v>207999.5424</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="3"/>
-        <v>42640.3016</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="4"/>
-        <v>651.698400000001</v>
+        <v>3179.45759999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <f>ROW()-2</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25942968</v>
+      </c>
+      <c r="C11" s="6">
+        <v>116149</v>
+      </c>
+      <c r="D11" s="6">
+        <v>110000.56</v>
+      </c>
+      <c r="E11" s="7">
+        <v>44200</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>6148.44</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>5.58946245364569</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>114400.5824</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="3"/>
+        <v>1748.4176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25957586</v>
+      </c>
+      <c r="C12" s="6">
+        <v>105590</v>
+      </c>
+      <c r="D12" s="6">
+        <v>100000.78</v>
+      </c>
+      <c r="E12" s="7">
+        <v>44202</v>
+      </c>
+      <c r="F12" s="6">
+        <f>C12-D12</f>
+        <v>5589.22</v>
+      </c>
+      <c r="G12" s="6">
+        <f>F12/D12*100</f>
+        <v>5.58917640442405</v>
+      </c>
+      <c r="H12" s="6">
+        <f>D12*1.04</f>
+        <v>104000.8112</v>
+      </c>
+      <c r="I12" s="6">
+        <f>C12-H12</f>
+        <v>1589.1888</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>25895264</v>
-      </c>
-      <c r="C11" s="6">
-        <v>211179</v>
-      </c>
-      <c r="D11" s="6">
-        <v>199999.56</v>
-      </c>
-      <c r="E11" s="7">
-        <v>44193</v>
-      </c>
-      <c r="F11" s="6">
-        <f>C11-D11</f>
-        <v>11179.44</v>
-      </c>
-      <c r="G11" s="6">
-        <f>F11/D11*100</f>
-        <v>5.58973229741106</v>
-      </c>
-      <c r="H11" s="6">
-        <f>D11*1.04</f>
-        <v>207999.5424</v>
-      </c>
-      <c r="I11" s="6">
-        <f>C11-H11</f>
-        <v>3179.45759999999</v>
+      <c r="C20" s="10">
+        <f>SUM(C2:C19)</f>
+        <v>1880361</v>
+      </c>
+      <c r="D20" s="10">
+        <f>SUM(D2:D19)</f>
+        <v>1780820.2</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11">
+        <f>SUM(F2:F19)</f>
+        <v>99540.8</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f>SUM(H2:H19)</f>
+        <v>1852053.008</v>
+      </c>
+      <c r="I20" s="10">
+        <f>SUM(I2:I19)</f>
+        <v>28307.992</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="8"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="10">
-        <f>SUM(C3:C20)</f>
-        <v>1658622</v>
-      </c>
-      <c r="D21" s="10">
-        <f>SUM(D3:D20)</f>
-        <v>1570818.86</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11">
-        <f>SUM(F3:F20)</f>
-        <v>87803.14</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H3:H20)</f>
-        <v>1633651.6144</v>
-      </c>
-      <c r="I21" s="10">
-        <f>SUM(I3:I20)</f>
-        <v>24970.3856</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="3:6">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="3"/>
+    <row r="23" s="2" customFormat="1" spans="3:6">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <sortState ref="3:10">
     <sortCondition ref="A3:A10" descending="1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="25799444" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
-    <hyperlink ref="B6" r:id="rId1" display="25809813" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
-    <hyperlink ref="B5" r:id="rId1" display="25686982" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
-    <hyperlink ref="B4" r:id="rId1" display="25698317" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
-    <hyperlink ref="B3" r:id="rId1" display="25700791" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
-    <hyperlink ref="B9" r:id="rId1" display="25837282" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
-    <hyperlink ref="B8" r:id="rId1" display="25833013" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B6" r:id="rId1" display="25799444" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B5" r:id="rId1" display="25809813" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B4" r:id="rId1" display="25686982" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B3" r:id="rId1" display="25698317" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B2" r:id="rId1" display="25700791" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B8" r:id="rId1" display="25837282" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B7" r:id="rId1" display="25833013" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/WalletStatement.xlsx
+++ b/WalletStatement.xlsx
@@ -52,10 +52,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="23">
@@ -88,6 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -96,12 +104,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -110,38 +164,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +188,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -163,17 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,17 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,28 +227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,37 +253,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,145 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,39 +444,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,6 +458,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +518,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -544,18 +535,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,130 +567,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -716,7 +716,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1120,19 +1120,19 @@
         <v>44166</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F11" si="0">C2-D2</f>
+        <f t="shared" ref="F2:F12" si="0">C2-D2</f>
         <v>56</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G11" si="1">F2/D2*100</f>
+        <f t="shared" ref="G2:G12" si="1">F2/D2*100</f>
         <v>5.6</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H11" si="2">D2*1.04</f>
+        <f t="shared" ref="H2:H12" si="2">D2*1.04</f>
         <v>1040</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I11" si="3">C2-H2</f>
+        <f t="shared" ref="I2:I12" si="3">C2-H2</f>
         <v>16</v>
       </c>
     </row>
@@ -1450,20 +1450,119 @@
         <v>44202</v>
       </c>
       <c r="F12" s="6">
-        <f>C12-D12</f>
+        <f t="shared" si="0"/>
         <v>5589.22</v>
       </c>
       <c r="G12" s="6">
-        <f>F12/D12*100</f>
+        <f t="shared" si="1"/>
         <v>5.58917640442405</v>
       </c>
       <c r="H12" s="6">
-        <f>D12*1.04</f>
+        <f t="shared" si="2"/>
         <v>104000.8112</v>
       </c>
       <c r="I12" s="6">
-        <f>C12-H12</f>
+        <f t="shared" si="3"/>
         <v>1589.1888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25978895</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10559</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="7">
+        <v>44203</v>
+      </c>
+      <c r="F13" s="6">
+        <f>C13-D13</f>
+        <v>559</v>
+      </c>
+      <c r="G13" s="6">
+        <f>F13/D13*100</f>
+        <v>5.59</v>
+      </c>
+      <c r="H13" s="6">
+        <f>D13*1.04</f>
+        <v>10400</v>
+      </c>
+      <c r="I13" s="6">
+        <f>C13-H13</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25977225</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45404</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43000</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44203</v>
+      </c>
+      <c r="F14" s="6">
+        <f>C14-D14</f>
+        <v>2404</v>
+      </c>
+      <c r="G14" s="6">
+        <f>F14/D14*100</f>
+        <v>5.5906976744186</v>
+      </c>
+      <c r="H14" s="6">
+        <f>D14*1.04</f>
+        <v>44720</v>
+      </c>
+      <c r="I14" s="6">
+        <f>C14-H14</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25991939</v>
+      </c>
+      <c r="C15" s="6">
+        <v>34845</v>
+      </c>
+      <c r="D15" s="6">
+        <v>33000</v>
+      </c>
+      <c r="E15" s="7">
+        <v>44205</v>
+      </c>
+      <c r="F15" s="6">
+        <f>C15-D15</f>
+        <v>1845</v>
+      </c>
+      <c r="G15" s="6">
+        <f>F15/D15*100</f>
+        <v>5.59090909090909</v>
+      </c>
+      <c r="H15" s="6">
+        <f>D15*1.04</f>
+        <v>34320</v>
+      </c>
+      <c r="I15" s="6">
+        <f>C15-H15</f>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="5:5">
@@ -1475,25 +1574,25 @@
       </c>
       <c r="C20" s="10">
         <f>SUM(C2:C19)</f>
-        <v>1880361</v>
+        <v>1971169</v>
       </c>
       <c r="D20" s="10">
         <f>SUM(D2:D19)</f>
-        <v>1780820.2</v>
+        <v>1866820.2</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11">
         <f>SUM(F2:F19)</f>
-        <v>99540.8</v>
+        <v>104348.8</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
         <f>SUM(H2:H19)</f>
-        <v>1852053.008</v>
+        <v>1941493.008</v>
       </c>
       <c r="I20" s="10">
         <f>SUM(I2:I19)</f>
-        <v>28307.992</v>
+        <v>29675.992</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="3:6">
